--- a/SCHNIE/SCHNIE管理条目.xlsx
+++ b/SCHNIE/SCHNIE管理条目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a04d8a5aeffc5f4/第九边缘SCHNIE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_C43A9FCDC3BDFB69B134CE269C6CF5AAA5AD5CC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27DE82D3-3879-4A95-9F37-7DF2CC302118}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_C43A9FCDC3BDFB69B134CE269C6CF5AAA5AD5CC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CAA14E-C7DC-4387-9DA8-B151EBD18DD1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="340" yWindow="340" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="24340" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>R灵耀体系：风落琴璃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>X循理之草：创世档案</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -389,10 +385,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>X越度之土：九虹重启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>X三拾之阴：昏昼合棋</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -457,10 +449,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>H平台（网站、公众号、QQ群等）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>B世界设定</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -501,10 +489,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>生命意义之篇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>定位自我之篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -589,14 +573,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>R灵耀体系：土落和鸣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>H引导（价值观、标准化认知等）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>认知引导</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -605,10 +581,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>X落日之风：神子之树</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>X踏虚之冰：重返故都</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -629,19 +601,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>多元织梦之篇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>X跨世之雷：执笔绘逢</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>H  OC（赠稿、自设等）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>H现世（历年作品收录）</t>
+    <t>H引导（协作测试、认知引导）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H现世（作品收录、线下发展）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H平台（网站、公众号等平台）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H  OC（协作赠稿、OC设定）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元织旅之篇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡定生命之篇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R灵耀体系：风落和鸣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X越度之风：九虹重启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X承日之土：神子之树</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R灵耀体系：土奏琴璃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
@@ -1142,38 +1142,38 @@
       </c>
     </row>
     <row r="2" spans="1:79" s="9" customFormat="1">
-      <c r="A2" s="11">
-        <v>45622</v>
+      <c r="A2" s="6">
+        <v>45870</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>121</v>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>25</v>
@@ -1182,7 +1182,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>34</v>
@@ -1191,13 +1191,13 @@
         <v>27</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>26</v>
@@ -1268,25 +1268,25 @@
     </row>
     <row r="3" spans="1:79" s="9" customFormat="1">
       <c r="A3" s="11">
-        <v>45621</v>
+        <v>45867</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>23</v>
@@ -1295,10 +1295,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>25</v>
@@ -1307,10 +1307,10 @@
         <v>26</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>27</v>
@@ -1322,7 +1322,7 @@
         <v>29</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>26</v>
@@ -1330,9 +1330,7 @@
       <c r="U3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="V3" s="8"/>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
@@ -1393,25 +1391,25 @@
     </row>
     <row r="4" spans="1:79" s="9" customFormat="1">
       <c r="A4" s="11">
-        <v>45620</v>
+        <v>45866</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>23</v>
@@ -1420,10 +1418,10 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>25</v>
@@ -1432,10 +1430,10 @@
         <v>26</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>27</v>
@@ -1447,7 +1445,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>26</v>
@@ -1455,9 +1453,7 @@
       <c r="U4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="V4" s="8"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -1517,38 +1513,38 @@
       <c r="CA4"/>
     </row>
     <row r="5" spans="1:79" s="9" customFormat="1">
-      <c r="A5" s="11">
-        <v>45711</v>
+      <c r="A5" s="14">
+        <v>45806</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>25</v>
@@ -1557,10 +1553,10 @@
         <v>26</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>27</v>
@@ -1572,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>26</v>
@@ -1643,25 +1639,25 @@
     </row>
     <row r="6" spans="1:79" s="9" customFormat="1">
       <c r="A6" s="6">
-        <v>45679</v>
+        <v>45747</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>57</v>
+        <v>120</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>23</v>
@@ -1669,43 +1665,43 @@
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="T6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="W6"/>
@@ -1768,25 +1764,25 @@
     </row>
     <row r="7" spans="1:79" s="9" customFormat="1">
       <c r="A7" s="6">
-        <v>45677</v>
+        <v>45747</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>23</v>
@@ -1795,10 +1791,10 @@
         <v>24</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>25</v>
@@ -1807,10 +1803,10 @@
         <v>26</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>27</v>
@@ -1822,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>26</v>
@@ -1893,25 +1889,25 @@
     </row>
     <row r="8" spans="1:79" s="10" customFormat="1">
       <c r="A8" s="6">
-        <v>45677</v>
+        <v>45744</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>23</v>
@@ -1920,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>53</v>
@@ -1932,10 +1928,10 @@
         <v>26</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>27</v>
@@ -1947,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>26</v>
@@ -1958,85 +1954,85 @@
       <c r="V8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-      <c r="BE8"/>
-      <c r="BF8"/>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
-      <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
-      <c r="BQ8"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
-      <c r="BT8"/>
-      <c r="BU8"/>
-      <c r="BV8"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
-      <c r="BY8"/>
-      <c r="BZ8"/>
-      <c r="CA8"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
     </row>
     <row r="9" spans="1:79" s="9" customFormat="1">
       <c r="A9" s="6">
-        <v>45679</v>
+        <v>45721</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>104</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>23</v>
@@ -2045,10 +2041,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>25</v>
@@ -2057,10 +2053,10 @@
         <v>26</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>27</v>
@@ -2072,7 +2068,7 @@
         <v>29</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>26</v>
@@ -2083,82 +2079,25 @@
       <c r="V9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
     </row>
     <row r="10" spans="1:79" s="9" customFormat="1">
       <c r="A10" s="6">
-        <v>45747</v>
+        <v>45711</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -2182,10 +2121,10 @@
         <v>26</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>27</v>
@@ -2208,85 +2147,28 @@
       <c r="V10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
     </row>
     <row r="11" spans="1:79" s="9" customFormat="1">
-      <c r="A11" s="6">
-        <v>45683</v>
+      <c r="A11" s="11">
+        <v>45711</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
+        <v>174</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>23</v>
@@ -2295,10 +2177,10 @@
         <v>24</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>25</v>
@@ -2307,10 +2189,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>27</v>
@@ -2319,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>26</v>
@@ -2392,38 +2274,38 @@
       <c r="CA11"/>
     </row>
     <row r="12" spans="1:79" s="9" customFormat="1">
-      <c r="A12" s="6">
-        <v>45327</v>
+      <c r="A12" s="11">
+        <v>45711</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>156</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>25</v>
@@ -2435,19 +2317,19 @@
         <v>33</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>26</v>
@@ -2518,25 +2400,25 @@
     </row>
     <row r="13" spans="1:79" s="9" customFormat="1">
       <c r="A13" s="6">
-        <v>45516</v>
+        <v>45704</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>23</v>
@@ -2545,10 +2427,10 @@
         <v>24</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>25</v>
@@ -2557,7 +2439,7 @@
         <v>26</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>34</v>
@@ -2566,13 +2448,13 @@
         <v>27</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>26</v>
@@ -2643,25 +2525,25 @@
     </row>
     <row r="14" spans="1:79" s="9" customFormat="1">
       <c r="A14" s="6">
-        <v>45711</v>
+        <v>45683</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>23</v>
@@ -2694,10 +2576,10 @@
         <v>28</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>26</v>
@@ -2708,25 +2590,82 @@
       <c r="V14" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
     </row>
     <row r="15" spans="1:79" s="9" customFormat="1">
       <c r="A15" s="6">
-        <v>45112</v>
+        <v>45679</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>96</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -2737,43 +2676,43 @@
       <c r="I15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="J15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="8" t="s">
+      <c r="M15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="8" t="s">
+      <c r="S15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W15"/>
@@ -2836,25 +2775,25 @@
     </row>
     <row r="16" spans="1:79" s="9" customFormat="1">
       <c r="A16" s="6">
-        <v>45112</v>
+        <v>45679</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>23</v>
@@ -2863,10 +2802,10 @@
         <v>24</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>25</v>
@@ -2875,10 +2814,10 @@
         <v>26</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>27</v>
@@ -2890,7 +2829,7 @@
         <v>29</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>26</v>
@@ -2961,25 +2900,25 @@
     </row>
     <row r="17" spans="1:79" s="10" customFormat="1">
       <c r="A17" s="6">
-        <v>45744</v>
+        <v>45677</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>23</v>
@@ -2988,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>53</v>
@@ -3000,10 +2939,10 @@
         <v>26</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>27</v>
@@ -3015,7 +2954,7 @@
         <v>29</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>26</v>
@@ -3026,85 +2965,85 @@
       <c r="V17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="9"/>
-      <c r="BH17" s="9"/>
-      <c r="BI17" s="9"/>
-      <c r="BJ17" s="9"/>
-      <c r="BK17" s="9"/>
-      <c r="BL17" s="9"/>
-      <c r="BM17" s="9"/>
-      <c r="BN17" s="9"/>
-      <c r="BO17" s="9"/>
-      <c r="BP17" s="9"/>
-      <c r="BQ17" s="9"/>
-      <c r="BR17" s="9"/>
-      <c r="BS17" s="9"/>
-      <c r="BT17" s="9"/>
-      <c r="BU17" s="9"/>
-      <c r="BV17" s="9"/>
-      <c r="BW17" s="9"/>
-      <c r="BX17" s="9"/>
-      <c r="BY17" s="9"/>
-      <c r="BZ17" s="9"/>
-      <c r="CA17" s="9"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
     </row>
     <row r="18" spans="1:79" s="9" customFormat="1">
       <c r="A18" s="6">
-        <v>45721</v>
+        <v>45677</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>23</v>
@@ -3113,10 +3052,10 @@
         <v>24</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>25</v>
@@ -3125,7 +3064,7 @@
         <v>26</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>34</v>
@@ -3140,7 +3079,7 @@
         <v>29</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>26</v>
@@ -3151,48 +3090,131 @@
       <c r="V18" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
     </row>
     <row r="19" spans="1:79" s="9" customFormat="1">
-      <c r="A19" s="6">
-        <v>45282</v>
+      <c r="A19" s="11">
+        <v>45622</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
@@ -3252,26 +3274,26 @@
       <c r="CA19"/>
     </row>
     <row r="20" spans="1:79" s="10" customFormat="1">
-      <c r="A20" s="6">
-        <v>45747</v>
+      <c r="A20" s="11">
+        <v>45621</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>167</v>
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>23</v>
@@ -3280,10 +3302,10 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>25</v>
@@ -3292,7 +3314,7 @@
         <v>26</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>34</v>
@@ -3307,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>26</v>
@@ -3377,23 +3399,23 @@
       <c r="CA20"/>
     </row>
     <row r="21" spans="1:79" s="9" customFormat="1">
-      <c r="A21" s="14">
-        <v>45806</v>
+      <c r="A21" s="11">
+        <v>45620</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -3405,10 +3427,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>25</v>
@@ -3417,10 +3439,10 @@
         <v>26</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>27</v>
@@ -3432,7 +3454,7 @@
         <v>29</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>26</v>
@@ -3502,26 +3524,26 @@
       <c r="CA21"/>
     </row>
     <row r="22" spans="1:79" s="9" customFormat="1">
-      <c r="A22" s="6">
-        <v>45520</v>
+      <c r="A22" s="11">
+        <v>45616</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>23</v>
@@ -3530,10 +3552,10 @@
         <v>24</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>25</v>
@@ -3542,19 +3564,19 @@
         <v>26</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>43</v>
@@ -3628,25 +3650,25 @@
     </row>
     <row r="23" spans="1:79" s="9" customFormat="1">
       <c r="A23" s="6">
-        <v>45112</v>
+        <v>45612</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>23</v>
@@ -3655,10 +3677,10 @@
         <v>24</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>25</v>
@@ -3667,10 +3689,10 @@
         <v>26</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>27</v>
@@ -3682,7 +3704,7 @@
         <v>29</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>26</v>
@@ -3753,16 +3775,16 @@
     </row>
     <row r="24" spans="1:79" s="10" customFormat="1">
       <c r="A24" s="6">
-        <v>45612</v>
+        <v>45516</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>116</v>
@@ -3771,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>23</v>
@@ -3780,10 +3802,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>25</v>
@@ -3792,10 +3814,10 @@
         <v>26</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>27</v>
@@ -3807,7 +3829,7 @@
         <v>29</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>26</v>
@@ -3878,37 +3900,37 @@
     </row>
     <row r="25" spans="1:79" s="9" customFormat="1">
       <c r="A25" s="6">
-        <v>45704</v>
+        <v>45375</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>25</v>
@@ -3917,22 +3939,22 @@
         <v>26</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>26</v>
@@ -3940,9 +3962,7 @@
       <c r="U25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="V25" s="8"/>
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
@@ -4002,26 +4022,26 @@
       <c r="CA25"/>
     </row>
     <row r="26" spans="1:79" s="9" customFormat="1">
-      <c r="A26" s="11">
-        <v>45616</v>
+      <c r="A26" s="6">
+        <v>45327</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>145</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>23</v>
@@ -4030,10 +4050,10 @@
         <v>24</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>25</v>
@@ -4051,10 +4071,10 @@
         <v>27</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>43</v>
@@ -4128,25 +4148,25 @@
     </row>
     <row r="27" spans="1:79" s="9" customFormat="1">
       <c r="A27" s="11">
-        <v>45711</v>
+        <v>45321</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>23</v>
@@ -4155,10 +4175,10 @@
         <v>24</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>25</v>
@@ -4167,10 +4187,10 @@
         <v>26</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>27</v>
@@ -4182,7 +4202,7 @@
         <v>29</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>26</v>
@@ -4190,9 +4210,7 @@
       <c r="U27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="V27" s="8"/>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
@@ -4252,26 +4270,26 @@
       <c r="CA27"/>
     </row>
     <row r="28" spans="1:79" s="9" customFormat="1">
-      <c r="A28" s="11">
-        <v>45594</v>
+      <c r="A28" s="6">
+        <v>45282</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>72</v>
+        <v>160</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>23</v>
@@ -4279,42 +4297,18 @@
       <c r="I28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28"/>
       <c r="X28"/>
@@ -4375,26 +4369,26 @@
       <c r="CA28"/>
     </row>
     <row r="29" spans="1:79" s="9" customFormat="1">
-      <c r="A29" s="11">
-        <v>45321</v>
+      <c r="A29" s="6">
+        <v>45112</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>72</v>
+        <v>126</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>21</v>
+        <v>141</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>23</v>
@@ -4403,10 +4397,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>25</v>
@@ -4415,10 +4409,10 @@
         <v>26</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>27</v>
@@ -4430,7 +4424,7 @@
         <v>29</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>26</v>
@@ -4438,7 +4432,9 @@
       <c r="U29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="8"/>
+      <c r="V29" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
@@ -4498,26 +4494,26 @@
       <c r="CA29"/>
     </row>
     <row r="30" spans="1:79" s="9" customFormat="1">
-      <c r="A30" s="11">
-        <v>45616</v>
+      <c r="A30" s="6">
+        <v>45112</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>72</v>
+        <v>158</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>23</v>
@@ -4526,10 +4522,10 @@
         <v>24</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>25</v>
@@ -4538,10 +4534,10 @@
         <v>26</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>27</v>
@@ -4553,7 +4549,7 @@
         <v>29</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>26</v>
@@ -4561,7 +4557,9 @@
       <c r="U30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="8"/>
+      <c r="V30" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
@@ -4622,37 +4620,37 @@
     </row>
     <row r="31" spans="1:79" s="10" customFormat="1">
       <c r="A31" s="6">
-        <v>45375</v>
+        <v>45112</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>25</v>
@@ -4661,10 +4659,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>27</v>
@@ -4676,7 +4674,7 @@
         <v>29</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="T31" s="8" t="s">
         <v>26</v>
@@ -4684,7 +4682,9 @@
       <c r="U31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="8"/>
+      <c r="V31" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -4746,7 +4746,7 @@
   </sheetData>
   <autoFilter ref="A1:FK31" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CA31">
-      <sortCondition descending="1" ref="C1:C31"/>
+      <sortCondition descending="1" ref="A1:A31"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
